--- a/Availability.xlsx
+++ b/Availability.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27106"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Storage/SoftwareEngineering/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="7995"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="27520" windowHeight="11500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Day of the Week</t>
   </si>
@@ -85,6 +98,12 @@
   </si>
   <si>
     <t>MN = Midnight</t>
+  </si>
+  <si>
+    <t>5pm-MN</t>
+  </si>
+  <si>
+    <t>8am-MN</t>
   </si>
 </sst>
 </file>
@@ -137,13 +156,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -201,12 +220,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -236,12 +255,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -448,19 +467,19 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -473,36 +492,36 @@
       <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -528,37 +547,58 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -580,7 +620,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -592,7 +632,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Availability.xlsx
+++ b/Availability.xlsx
@@ -467,7 +467,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B10" sqref="B10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -551,27 +551,6 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -601,6 +580,27 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Availability.xlsx
+++ b/Availability.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Storage/SoftwareEngineering/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha_000\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="27520" windowHeight="11500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Day of the Week</t>
   </si>
@@ -104,12 +104,24 @@
   </si>
   <si>
     <t>8am-MN</t>
+  </si>
+  <si>
+    <t>12pm-5pm</t>
+  </si>
+  <si>
+    <t>2pm-5pm</t>
+  </si>
+  <si>
+    <t>2pm-4pm</t>
+  </si>
+  <si>
+    <t>12pm-MN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -172,6 +184,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -467,19 +482,19 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:H10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -494,7 +509,7 @@
       </c>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -521,7 +536,7 @@
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -547,60 +562,81 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -620,7 +656,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -632,7 +668,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Availability.xlsx
+++ b/Availability.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha_000\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,6 @@
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Day of the Week</t>
   </si>
@@ -116,12 +113,18 @@
   </si>
   <si>
     <t>12pm-MN</t>
+  </si>
+  <si>
+    <t>4pm-MN</t>
+  </si>
+  <si>
+    <t>3pm-MN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -482,7 +485,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,6 +635,27 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">

--- a/Availability.xlsx
+++ b/Availability.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27106"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Storage/SoftwareEngineering/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -485,19 +488,19 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="B10" sqref="B10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -512,7 +515,7 @@
       </c>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -539,7 +542,7 @@
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -565,33 +568,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -617,22 +599,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -658,9 +640,30 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -680,7 +683,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -692,7 +695,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Availability.xlsx
+++ b/Availability.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27106"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Storage/SoftwareEngineering/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12440"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="19440" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +13,6 @@
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>Day of the Week</t>
   </si>
@@ -122,6 +114,12 @@
   </si>
   <si>
     <t>3pm-MN</t>
+  </si>
+  <si>
+    <t>9am-1pm AND 2pm-MN</t>
+  </si>
+  <si>
+    <t>1pm-MN</t>
   </si>
 </sst>
 </file>
@@ -241,7 +239,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -276,7 +274,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -488,19 +486,19 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:H10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="18.95" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -515,7 +513,7 @@
       </c>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -604,17 +602,38 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -683,7 +702,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -695,7 +714,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Availability.xlsx
+++ b/Availability.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="19440" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>Day of the Week</t>
   </si>
@@ -120,12 +125,24 @@
   </si>
   <si>
     <t>1pm-MN</t>
+  </si>
+  <si>
+    <t>9am-3pm</t>
+  </si>
+  <si>
+    <t>11am-3pm</t>
+  </si>
+  <si>
+    <t>10am-6pm</t>
+  </si>
+  <si>
+    <t>9am-MN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -486,13 +503,14 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
@@ -569,6 +587,27 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">

--- a/Availability.xlsx
+++ b/Availability.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juangonzalez/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>Day of the Week</t>
   </si>
@@ -137,12 +137,30 @@
   </si>
   <si>
     <t>9am-MN</t>
+  </si>
+  <si>
+    <t>3pm-7pm</t>
+  </si>
+  <si>
+    <t>9am-1pm and 3pm-7pm</t>
+  </si>
+  <si>
+    <t>9am-1pm AND 3pm-7pm</t>
+  </si>
+  <si>
+    <t>11am-9pm</t>
+  </si>
+  <si>
+    <t>11am-7pm</t>
+  </si>
+  <si>
+    <t>2pm-7pm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -503,20 +521,20 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -531,7 +549,7 @@
       </c>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -640,13 +658,34 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -672,7 +711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -741,7 +780,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -753,7 +792,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Availability.xlsx
+++ b/Availability.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27106"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juangonzalez/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Storage/SoftwareEngineering/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12220"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="19540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>Day of the Week</t>
   </si>
@@ -155,22 +158,21 @@
   </si>
   <si>
     <t>2pm-7pm</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>adam.furbee@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -180,6 +182,22 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,20 +220,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -518,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -532,51 +553,55 @@
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -602,7 +627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -628,7 +653,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -654,7 +679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -680,12 +705,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -711,7 +736,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -737,7 +762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -761,16 +786,22 @@
       </c>
       <c r="H10" t="s">
         <v>24</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Availability.xlsx
+++ b/Availability.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Storage/SoftwareEngineering/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thamer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="19540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4470"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>Day of the Week</t>
   </si>
@@ -164,12 +164,15 @@
   </si>
   <si>
     <t>adam.furbee@gmail.com</t>
+  </si>
+  <si>
+    <t>t_alhusain@yahoo.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -226,14 +229,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -541,67 +544,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="L1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -626,8 +629,11 @@
       <c r="H3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -653,7 +659,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -679,7 +685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -705,12 +711,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -736,7 +742,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -762,7 +768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -787,7 +793,7 @@
       <c r="H10" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -799,9 +805,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J10" r:id="rId1"/>
+    <hyperlink ref="J3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -811,7 +818,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -823,7 +830,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Availability.xlsx
+++ b/Availability.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thamer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iakav\Documents\GitHub\SoftwareEngineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>Day of the Week</t>
   </si>
@@ -167,6 +167,33 @@
   </si>
   <si>
     <t>t_alhusain@yahoo.com</t>
+  </si>
+  <si>
+    <t>Patrick Starkey</t>
+  </si>
+  <si>
+    <t>9 am-MN</t>
+  </si>
+  <si>
+    <t>9-MN</t>
+  </si>
+  <si>
+    <t>iakavas@live.com</t>
+  </si>
+  <si>
+    <t>10am-3</t>
+  </si>
+  <si>
+    <t>9am-12</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>281-797-7242</t>
+  </si>
+  <si>
+    <t>9am-1230 &amp; 2-9</t>
   </si>
 </sst>
 </file>
@@ -542,20 +569,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
     <col min="10" max="10" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -596,6 +625,9 @@
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>43</v>
       </c>
@@ -795,6 +827,38 @@
       </c>
       <c r="J10" s="2" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -806,9 +870,10 @@
   <hyperlinks>
     <hyperlink ref="J10" r:id="rId1"/>
     <hyperlink ref="J3" r:id="rId2"/>
+    <hyperlink ref="J11" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
